--- a/pred_ohlcv/54_21/2020-01-12 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 RNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-226207.5503641688</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-235744.2825641688</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-367045.4862641689</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-275167.4439641689</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-20529.44326416892</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>237393.8485358311</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>318767.6261358311</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>335826.738335831</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>314149.391535831</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>314149.391535831</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>284399.1714358311</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>287988.3037358311</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>287988.3037358311</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>286560.6078358311</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>264040.549935831</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>244077.356235831</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>269843.356235831</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>270455.4473358311</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>244535.4473358311</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>167993.6382358311</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>178975.6382358311</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>14674.73693583105</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>14674.73693583105</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>36147.07303583105</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-13279.15476416895</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-82790.09236416896</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>8383.353735831246</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>8471.353735831246</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>38423.88663583124</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>33681.95113583124</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>46670.70493583124</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>43324.86903583125</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-81802.66066416875</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-81802.66066416875</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-70595.62726416875</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-164913.8783641687</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-159891.0755641687</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-58316.63976416874</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>55607.88573583127</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-20039.20346416874</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-19991.20346416874</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-50870.37496416873</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-50870.37496416873</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-56593.93786416873</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-56593.93786416873</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-143316.8377641687</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-159429.4282641687</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-158729.4282641687</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-159269.1491641687</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-398894.5465641687</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2045387.568472334</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-2045387.568472334</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2045387.568472334</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2005559.384072334</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2158558.851072334</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-2158558.851072334</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2158510.406672334</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2158510.406672334</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2158510.406672334</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2186366.053672334</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2186366.053672334</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2186366.053672334</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2176713.347672334</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2176896.717072334</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2175419.167172334</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2174023.229472334</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2173973.229472334</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2149931.245777311</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2149931.245777311</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2144419.238872334</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2174177.246567356</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2174177.246567356</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2157485.060767356</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2154240.096767356</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2173240.096767356</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2180305.885367356</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2168617.155367356</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2168058.249667356</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2173070.109667356</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2187816.681067356</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2187766.681067356</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2189621.998567356</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2211814.991567356</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2213452.046367356</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2154887.294067356</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2145673.851067356</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2147359.585067356</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2147309.585067356</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2147264.585067356</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2147314.585067356</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2144865.675067356</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2144873.625867356</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2164243.625867356</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2162453.115567356</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2160566.644767356</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2173376.671967356</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2286431.698967356</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2286386.613267356</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2286780.745467356</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2448000.585467356</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2555117.010567355</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2555072.010567355</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2586954.356267355</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2582763.682667356</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2772000.595767356</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2795750.297867355</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2795046.010267355</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2855666.101367355</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-12 RNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 RNT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-226207.5503641688</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-230975.9164641688</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-235744.2825641688</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-367045.4862641689</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-275167.4439641689</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-20529.44326416892</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>237393.8485358311</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>318767.6261358311</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>335826.738335831</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>314149.391535831</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>314149.391535831</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>284399.1714358311</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>287988.3037358311</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>286560.6078358311</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>264040.549935831</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>275450.549935831</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>241918.504235831</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>231378.676435831</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>267398.676435831</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>244077.356235831</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>269843.356235831</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>270455.4473358311</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>249035.4473358311</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>167993.6382358311</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>178975.6382358311</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>14674.73693583105</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>14674.73693583105</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>36147.07303583105</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-13279.15476416895</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-82790.09236416896</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>164469.3723358313</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>8383.353735831246</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>8471.353735831246</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>38423.88663583124</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>33681.95113583124</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>33620.95113583124</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>46670.70493583124</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>46427.05013583125</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>43324.86903583125</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-81802.66066416875</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-81802.66066416875</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-70595.62726416875</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-164913.8783641687</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-159891.0755641687</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-58316.63976416874</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>55607.88573583127</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>55607.88573583127</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-159429.4282641687</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-158729.4282641687</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-159269.1491641687</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-398894.5465641687</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2175419.167172334</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2174023.229472334</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2144419.238872334</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2174177.246567356</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2157485.060767356</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2157381.467767356</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2157336.584367356</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2154240.096767356</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-2173240.096767356</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-2173100.571167356</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-2180305.885367356</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-2163614.885367356</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-2168617.155367356</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-2168058.249667356</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-2173070.109667356</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-2187816.681067356</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-2187766.681067356</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-2189721.998567356</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-2189621.998567356</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-2211814.991567356</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-2211864.991567356</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-2211621.314967356</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-2211571.314967356</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2208488.486367356</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-2213452.046367356</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2154887.294067356</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2145673.851067356</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2145318.715067356</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2147359.585067356</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-2147309.585067356</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-2147264.585067356</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-2147314.585067356</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-2144865.675067356</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-2144873.625867356</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-2164243.625867356</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-2162453.115567356</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-2160566.644767356</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-2173376.671967356</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-2286431.698967356</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-2286386.613267356</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-2286780.745467356</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2448000.585467356</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-2463167.631167355</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-2555117.010567355</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-2555072.010567355</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-2555023.556067355</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-2586954.356267355</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-2572023.356267355</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-2582763.682667356</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-2772000.595767356</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-2795750.297867355</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-2795046.010267355</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-2832814.010267355</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-2855666.101367355</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
